--- a/Self.xlsx
+++ b/Self.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Failures</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Active Management</t>
+  </si>
+  <si>
+    <t>Passive OR Systematic Active</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 SPY Returns </t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +420,18 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Self.xlsx
+++ b/Self.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Failures</t>
   </si>
@@ -41,13 +41,22 @@
   </si>
   <si>
     <t xml:space="preserve">2013 SPY Returns </t>
+  </si>
+  <si>
+    <t>Motivated Reasoning</t>
+  </si>
+  <si>
+    <t>spx_self = spx.loc['2013-07-03':'2018-02-02']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +66,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,14 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -416,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -431,6 +450,34 @@
       </c>
       <c r="E3" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>2619.5500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>+E5/E4</f>
+        <v>1.6220123839009288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <f>50000*0.7</f>
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
